--- a/code/industry_reclassifications.xlsx
+++ b/code/industry_reclassifications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG DATA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BB101\_專題\real_estate\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>醫院</t>
   </si>
@@ -352,6 +352,14 @@
   </si>
   <si>
     <t xml:space="preserve">    END;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categories</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,8 +429,36 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -697,20 +733,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="I38" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="82.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -727,7 +764,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -747,8 +784,12 @@
         <f>"    WHEN industry_code1 = "&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;" THEN "&amp;CHAR(34)&amp;H2&amp;CHAR(34)&amp;" "</f>
         <v xml:space="preserve">    WHEN industry_code1 = "959916" THEN "21" </v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="str">
+        <f>"INSERT INTO "&amp;$B$5&amp;" VALUES ("&amp;CHAR(39)&amp;H2&amp;CHAR(39)&amp;", "&amp;CHAR(39)&amp;D2&amp;CHAR(39)&amp;");"</f>
+        <v>INSERT INTO categories VALUES ('21', '衣服修改');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -768,8 +809,12 @@
         <f t="shared" ref="I3:I27" si="0">"    WHEN industry_code1 = "&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;" THEN "&amp;CHAR(34)&amp;H3&amp;CHAR(34)&amp;" "</f>
         <v xml:space="preserve">    WHEN industry_code1 = "959914" THEN "22" </v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="1">"INSERT INTO "&amp;$B$5&amp;" VALUES ("&amp;CHAR(39)&amp;H3&amp;CHAR(39)&amp;", "&amp;CHAR(39)&amp;D3&amp;CHAR(39)&amp;");"</f>
+        <v>INSERT INTO categories VALUES ('22', '自行車修理');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>19</v>
       </c>
@@ -783,8 +828,18 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "931219" THEN "23" </v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('23', '健身房');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
@@ -798,8 +853,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "931218" THEN "24" </v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('24', '游泳池');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>17</v>
       </c>
@@ -813,8 +872,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "750000" THEN "25" </v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('25', '獸醫服務業');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>2</v>
       </c>
@@ -828,8 +891,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "591411" THEN "26" </v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('26', '電影院');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>13</v>
       </c>
@@ -843,8 +910,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "562112" THEN "27" </v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('27', '咖啡館');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -858,8 +929,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "561015" THEN "28" </v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('28', '餐館');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>10</v>
       </c>
@@ -873,8 +948,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "561014" THEN "29" </v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('29', '連鎖速食店');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -888,8 +967,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "561013" THEN "30" </v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('30', '麵店/小吃店');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>8</v>
       </c>
@@ -903,8 +986,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "561012" THEN "31" </v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('31', '便當/自助餐');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -918,8 +1005,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "561011" THEN "32" </v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('32', '早餐店');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -933,8 +1024,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "551013" THEN "33" </v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('33', '民宿');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>5</v>
       </c>
@@ -948,8 +1043,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "551012" THEN "34" </v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('34', '旅館');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>40</v>
       </c>
@@ -963,8 +1062,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "551011" THEN "35" </v>
       </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('35', '觀光旅館');</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>1</v>
       </c>
@@ -978,8 +1081,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "524100" THEN "36" </v>
       </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('36', '停車場');</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>32</v>
       </c>
@@ -993,8 +1100,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "475112" THEN "37" </v>
       </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('37', '西藥零售');</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>33</v>
       </c>
@@ -1008,8 +1119,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "475112" THEN "38" </v>
       </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('38', '醫療耗材零售');</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>31</v>
       </c>
@@ -1023,8 +1138,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "475111" THEN "39" </v>
       </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('39', '中藥零售');</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>4</v>
       </c>
@@ -1038,8 +1157,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "471911" THEN "40" </v>
       </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('40', '百貨');</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
         <v>39</v>
       </c>
@@ -1055,8 +1178,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "471116" THEN "41" </v>
       </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('41', '消費合作社');</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
@@ -1072,8 +1199,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "471115" THEN "42" </v>
       </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('42', '雜貨店');</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1089,9 +1220,15 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "471112" THEN "43" </v>
       </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('43', '便利商店');</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E25" s="1">
         <v>471113</v>
       </c>
@@ -1105,8 +1242,10 @@
         <v xml:space="preserve">    WHEN industry_code1 = "471113" THEN "43" </v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E26" s="1">
         <v>471114</v>
       </c>
@@ -1120,7 +1259,7 @@
         <v xml:space="preserve">    WHEN industry_code1 = "471114" THEN "43" </v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>30</v>
       </c>
@@ -1134,20 +1273,24 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    WHEN industry_code1 = "471111" THEN "44" </v>
       </c>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('44', '超級市場');</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
       <c r="I28" t="str">
         <f>"    ELSE "</f>
         <v xml:space="preserve">    ELSE </v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
       <c r="I29" t="str">
         <f>"    (CASE "</f>
         <v xml:space="preserve">    (CASE </v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>28</v>
       </c>
@@ -1161,8 +1304,12 @@
         <f>"        WHEN industry_code1 like "&amp;CHAR(34)&amp;E30&amp;CHAR(37)&amp;CHAR(34)&amp;" THEN "&amp;CHAR(34)&amp;H30&amp;CHAR(34)&amp;" "</f>
         <v xml:space="preserve">        WHEN industry_code1 like "9621%" THEN "45" </v>
       </c>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('45', '美髮業');</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>27</v>
       </c>
@@ -1173,11 +1320,15 @@
         <v>46</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" ref="I31:I47" si="1">"        WHEN industry_code1 like "&amp;CHAR(34)&amp;E31&amp;CHAR(37)&amp;CHAR(34)&amp;" THEN "&amp;CHAR(34)&amp;H31&amp;CHAR(34)&amp;" "</f>
+        <f t="shared" ref="I31:I47" si="2">"        WHEN industry_code1 like "&amp;CHAR(34)&amp;E31&amp;CHAR(37)&amp;CHAR(34)&amp;" THEN "&amp;CHAR(34)&amp;H31&amp;CHAR(34)&amp;" "</f>
         <v xml:space="preserve">        WHEN industry_code1 like "9610%" THEN "46" </v>
       </c>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('46', '洗衣業');</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>24</v>
       </c>
@@ -1188,11 +1339,15 @@
         <v>47</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "9591%" THEN "47" </v>
       </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('47', '機車維修');</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>41</v>
       </c>
@@ -1203,11 +1358,15 @@
         <v>48</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "9522%" THEN "48" </v>
       </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('48', '通訊維修');</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>23</v>
       </c>
@@ -1218,11 +1377,15 @@
         <v>49</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "9521%" THEN "49" </v>
       </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('49', '電腦維修');</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>22</v>
       </c>
@@ -1233,11 +1396,15 @@
         <v>50</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "9512%" THEN "50" </v>
       </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('50', '汽車美容業');</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>21</v>
       </c>
@@ -1248,11 +1415,15 @@
         <v>51</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "9511%" THEN "51" </v>
       </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('51', '汽車維修業');</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>18</v>
       </c>
@@ -1263,11 +1434,15 @@
         <v>52</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "9312%" THEN "52" </v>
       </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('52', '運動場館');</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>37</v>
       </c>
@@ -1278,11 +1453,15 @@
         <v>53</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "8620%" THEN "53" </v>
       </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('53', '診所');</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>0</v>
       </c>
@@ -1293,11 +1472,15 @@
         <v>54</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "8610%" THEN "54" </v>
       </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('54', '醫院');</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>16</v>
       </c>
@@ -1308,11 +1491,15 @@
         <v>55</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "6412%" THEN "55" </v>
       </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('55', '銀行業');</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>15</v>
       </c>
@@ -1326,8 +1513,12 @@
         <f>"        WHEN industry_code1 like "&amp;CHAR(34)&amp;E41&amp;CHAR(37)&amp;CHAR(34)&amp;" THEN "&amp;CHAR(34)&amp;H41&amp;CHAR(34)&amp;" "</f>
         <v xml:space="preserve">        WHEN industry_code1 like "5631%" THEN "56" </v>
       </c>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('56', '餐食攤販業');</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>14</v>
       </c>
@@ -1338,11 +1529,15 @@
         <v>57</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "5622%" THEN "57" </v>
       </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('57', '酒精飲料店業');</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>12</v>
       </c>
@@ -1353,11 +1548,15 @@
         <v>58</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "5621%" THEN "58" </v>
       </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('58', '非酒精飲料店業');</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>36</v>
       </c>
@@ -1368,11 +1567,15 @@
         <v>59</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "4832%" THEN "59" </v>
       </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('59', '通訊設備相關零售');</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>35</v>
       </c>
@@ -1383,11 +1586,15 @@
         <v>60</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "4831%" THEN "60" </v>
       </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('60', '電腦相關零售');</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>34</v>
       </c>
@@ -1398,11 +1605,15 @@
         <v>61</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "4821%" THEN "61" </v>
       </c>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J46" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('61', '加油站');</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>29</v>
       </c>
@@ -1413,11 +1624,15 @@
         <v>62</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">        WHEN industry_code1 like "4761%" THEN "62" </v>
       </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J47" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('62', '書籍/文具零售業');</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>42</v>
       </c>
@@ -1437,8 +1652,12 @@
         <f>"        WHEN industry_code1 between "&amp;CHAR(34)&amp;E48&amp;CHAR(34)&amp;" AND "&amp;CHAR(34)&amp;G48&amp;CHAR(34)&amp;" THEN "&amp;CHAR(34)&amp;H48&amp;CHAR(34)&amp;" "</f>
         <v xml:space="preserve">        WHEN industry_code1 between "01" AND "04" THEN "01" </v>
       </c>
-    </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J48" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('01', '農林漁牧業');</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>43</v>
       </c>
@@ -1455,11 +1674,15 @@
         <v>74</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" ref="I49:I66" si="2">"        WHEN industry_code1 between "&amp;CHAR(34)&amp;E49&amp;CHAR(34)&amp;" AND "&amp;CHAR(34)&amp;G49&amp;CHAR(34)&amp;" THEN "&amp;CHAR(34)&amp;H49&amp;CHAR(34)&amp;" "</f>
+        <f t="shared" ref="I49:I65" si="3">"        WHEN industry_code1 between "&amp;CHAR(34)&amp;E49&amp;CHAR(34)&amp;" AND "&amp;CHAR(34)&amp;G49&amp;CHAR(34)&amp;" THEN "&amp;CHAR(34)&amp;H49&amp;CHAR(34)&amp;" "</f>
         <v xml:space="preserve">        WHEN industry_code1 between "05" AND "08" THEN "02" </v>
       </c>
-    </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J49" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('02', '礦業及土石採取業');</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>44</v>
       </c>
@@ -1476,11 +1699,15 @@
         <v>69</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "08" AND "35" THEN "03" </v>
       </c>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J50" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('03', '製造業');</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>45</v>
       </c>
@@ -1497,11 +1724,15 @@
         <v>75</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "35" AND "36" THEN "04" </v>
       </c>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J51" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('04', '電力及燃氣供應業');</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>46</v>
       </c>
@@ -1518,11 +1749,15 @@
         <v>72</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "36" AND "40" THEN "05" </v>
       </c>
-    </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('05', '用水供應及汙染整治業');</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>47</v>
       </c>
@@ -1539,11 +1774,15 @@
         <v>76</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "41" AND "44" THEN "06" </v>
       </c>
-    </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('06', '營造業');</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>48</v>
       </c>
@@ -1560,11 +1799,15 @@
         <v>73</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "45" AND "49" THEN "07" </v>
       </c>
-    </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J54" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('07', '批發及零售業');</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>49</v>
       </c>
@@ -1581,11 +1824,15 @@
         <v>70</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "49" AND "55" THEN "08" </v>
       </c>
-    </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J55" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('08', '運輸及倉儲業');</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>50</v>
       </c>
@@ -1602,11 +1849,15 @@
         <v>77</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "55" AND "57" THEN "09" </v>
       </c>
-    </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J56" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('09', '住宿及餐飲業');</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>51</v>
       </c>
@@ -1623,11 +1874,15 @@
         <v>10</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "58" AND "64" THEN "10" </v>
       </c>
-    </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J57" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('10', '資訊及通訊傳播業');</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>52</v>
       </c>
@@ -1644,11 +1899,15 @@
         <v>11</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "64" AND "67" THEN "11" </v>
       </c>
-    </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J58" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('11', '金融及保險業');</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>53</v>
       </c>
@@ -1665,11 +1924,15 @@
         <v>12</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "67" AND "69" THEN "12" </v>
       </c>
-    </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('12', '不動產業');</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>54</v>
       </c>
@@ -1686,11 +1949,15 @@
         <v>13</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "69" AND "77" THEN "13" </v>
       </c>
-    </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('13', '專業科學及技術服務業');</v>
+      </c>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>55</v>
       </c>
@@ -1707,11 +1974,15 @@
         <v>14</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "77" AND "83" THEN "14" </v>
       </c>
-    </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J61" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('14', '支援服務業');</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>56</v>
       </c>
@@ -1728,11 +1999,15 @@
         <v>15</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "83" AND "85" THEN "15" </v>
       </c>
-    </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J62" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('15', '公共行政及國防強制性社會安全');</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1749,11 +2024,15 @@
         <v>16</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "85" AND "86" THEN "16" </v>
       </c>
-    </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J63" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('16', '教育服務業');</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>58</v>
       </c>
@@ -1773,8 +2052,12 @@
         <f>"        WHEN industry_code1 between "&amp;CHAR(34)&amp;E64&amp;CHAR(34)&amp;" AND "&amp;CHAR(34)&amp;G64&amp;CHAR(34)&amp;" THEN "&amp;CHAR(34)&amp;H64&amp;CHAR(34)&amp;" "</f>
         <v xml:space="preserve">        WHEN industry_code1 between "86" AND "89" THEN "17" </v>
       </c>
-    </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J64" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('17', '醫療保健及社會工作服務業');</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>59</v>
       </c>
@@ -1791,11 +2074,15 @@
         <v>18</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">        WHEN industry_code1 between "90" AND "94" THEN "18" </v>
       </c>
-    </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J65" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('18', '藝術娛樂及休閒服務業');</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>60</v>
       </c>
@@ -1815,13 +2102,17 @@
         <f>"        WHEN industry_code1 between "&amp;CHAR(34)&amp;E66&amp;CHAR(34)&amp;" AND "&amp;CHAR(34)&amp;G66&amp;CHAR(34)&amp;" THEN "&amp;CHAR(34)&amp;H66&amp;CHAR(34)&amp;""</f>
         <v xml:space="preserve">        WHEN industry_code1 between "94" AND "97" THEN "19"</v>
       </c>
-    </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J66" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categories VALUES ('19', '其他服務業');</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
         <v>82</v>
       </c>
